--- a/story_xlsx_files_postpilotiiedits/31.xlsx
+++ b/story_xlsx_files_postpilotiiedits/31.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>storyText</t>
   </si>
@@ -49,7 +49,7 @@
     <t>They chose to meet at an old steakhouse with dark wood paneling on the floor and ceilings, taxidermy animals on the walls, and a candelabra on every table.</t>
   </si>
   <si>
-    <t xml:space="preserve">The waitress seated them at their table in the back. </t>
+    <t xml:space="preserve">The waitress took them to the back of the restaurant and seated them in a private booth. </t>
   </si>
   <si>
     <t xml:space="preserve">She brought out the menus, and they briefly chatted about personal happenings. </t>
@@ -62,6 +62,27 @@
   </si>
   <si>
     <t>Flipping to the back of the menu brought one to a lengthy drink selection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Then, Mr. Shelton said, “Look, I’ve talked to other members of the board, and we are prepared to offer $600 million to buy your company. </t>
+  </si>
+  <si>
+    <t>“Mr. Gordon, we really admire what you’re doing at your company.</t>
+  </si>
+  <si>
+    <t>We think it’s genius; we want to support your vision and make this tiny company of yours internationally known.</t>
+  </si>
+  <si>
+    <t>But honestly, your company doesn’t have the resources to reach international markets right now.</t>
+  </si>
+  <si>
+    <t>Maybe in a few years you could, but by that time, other companies may have already filled your niche.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We'd keep on all of your current employees, and you would join as the director of your company branch.” </t>
+  </si>
+  <si>
+    <t>I think we should join forces.”</t>
   </si>
   <si>
     <r>
@@ -70,44 +91,13 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>Mr. Shelton got serious and brought the conversation around to business.</t>
+      <t>The waitress arrived and asked for their orders.</t>
     </r>
   </si>
   <si>
-    <t>“Mr. Gordon, we really admire what you’re doing at your company.</t>
-  </si>
-  <si>
-    <t>We think it’s genius; we want to support your vision and make this tiny company of yours internationally known.</t>
-  </si>
-  <si>
-    <t>But honestly, your company doesn’t have the resources to reach international markets right now.</t>
-  </si>
-  <si>
-    <t>Maybe in a few years you could, but by that time, other companies may have already filled your niche.</t>
-  </si>
-  <si>
-    <t>I think we should join forces.”</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>The waitress arrived and asked if they were ready to order.</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Mr. Gordon chose the medium-rare steak and a martini, and Mr. Shelton ordered the veal and a manhattan. </t>
   </si>
   <si>
-    <t xml:space="preserve">Then Mr. Shelton continued, “Look, I’ve talked to other members of the board, and we are prepared to offer $600 million to buy your company. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">We'd keep on all of your current employees, and you would join as the director of your company branch.” </t>
-  </si>
-  <si>
     <t>Mr. Gordon looked at Mr. Shelton skeptically for a few moments considering his response until he said, “Mr. Shelton, I think that you make a compelling offer, but there are definitely some disadvantages to attaching our small, streamlined productions to a large company like yours.</t>
   </si>
   <si>
@@ -144,7 +134,7 @@
     <t xml:space="preserve">The meal was subpar- they both found the meat to be overcooked and dry. </t>
   </si>
   <si>
-    <t xml:space="preserve">Mr. Gordon, after taking a contemplative bite and swallowing, said, “Mr. Shelton, I think we have a deal. </t>
+    <t xml:space="preserve">Mr. Gordon, after taking a contemplative bite and swallowing, looked Mr. Shelton straight in the eye and said, “Mr. Shelton, we have a deal. </t>
   </si>
   <si>
     <t>If you can guarantee that I can still have the final say in all the work done by my team, I think this could be beneficial for both of us.</t>
@@ -1465,7 +1455,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1644,8 +1634,8 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" ht="115.8" customHeight="1">
-      <c r="A12" t="s" s="8">
+    <row r="12" ht="259.8" customHeight="1">
+      <c r="A12" t="s" s="12">
         <v>14</v>
       </c>
       <c r="B12" s="9">
@@ -1719,8 +1709,8 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" ht="61.8" customHeight="1">
-      <c r="A17" t="s" s="12">
+    <row r="17" ht="92.05" customHeight="1">
+      <c r="A17" t="s" s="8">
         <v>19</v>
       </c>
       <c r="B17" s="9">
@@ -1734,12 +1724,12 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" ht="151.8" customHeight="1">
-      <c r="A18" t="s" s="8">
+    <row r="18" ht="61.8" customHeight="1">
+      <c r="A18" t="s" s="12">
         <v>20</v>
       </c>
       <c r="B18" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="10">
         <v>2</v>
@@ -1749,8 +1739,8 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" ht="187.8" customHeight="1">
-      <c r="A19" t="s" s="12">
+    <row r="19" ht="151.8" customHeight="1">
+      <c r="A19" t="s" s="8">
         <v>21</v>
       </c>
       <c r="B19" s="9">
@@ -1764,7 +1754,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" ht="259.8" customHeight="1">
+    <row r="20" ht="187.8" customHeight="1">
       <c r="A20" t="s" s="12">
         <v>22</v>
       </c>
@@ -1779,7 +1769,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" ht="92.05" customHeight="1">
+    <row r="21" ht="80.05" customHeight="1">
       <c r="A21" t="s" s="8">
         <v>23</v>
       </c>
@@ -1787,14 +1777,14 @@
         <v>3</v>
       </c>
       <c r="C21" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="80.05" customHeight="1">
+    <row r="22" ht="164.05" customHeight="1">
       <c r="A22" t="s" s="8">
         <v>24</v>
       </c>
@@ -1809,7 +1799,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" ht="164.05" customHeight="1">
+    <row r="23" ht="56.05" customHeight="1">
       <c r="A23" t="s" s="8">
         <v>25</v>
       </c>
@@ -1839,7 +1829,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="56.05" customHeight="1">
+    <row r="25" ht="92.05" customHeight="1">
       <c r="A25" t="s" s="8">
         <v>27</v>
       </c>
@@ -1869,7 +1859,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="92.05" customHeight="1">
+    <row r="27" ht="116.05" customHeight="1">
       <c r="A27" t="s" s="8">
         <v>29</v>
       </c>
@@ -1884,12 +1874,12 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="116.05" customHeight="1">
+    <row r="28" ht="68.05" customHeight="1">
       <c r="A28" t="s" s="8">
         <v>30</v>
       </c>
       <c r="B28" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" s="10">
         <v>3</v>
@@ -1899,7 +1889,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="68.05" customHeight="1">
+    <row r="29" ht="44.05" customHeight="1">
       <c r="A29" t="s" s="8">
         <v>31</v>
       </c>
@@ -1914,7 +1904,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="44.05" customHeight="1">
+    <row r="30" ht="56.05" customHeight="1">
       <c r="A30" t="s" s="8">
         <v>32</v>
       </c>
@@ -1929,7 +1919,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="56.05" customHeight="1">
+    <row r="31" ht="32.05" customHeight="1">
       <c r="A31" t="s" s="8">
         <v>33</v>
       </c>
@@ -1944,7 +1934,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" ht="32.05" customHeight="1">
+    <row r="32" ht="92.05" customHeight="1">
       <c r="A32" t="s" s="8">
         <v>34</v>
       </c>
@@ -1967,14 +1957,14 @@
         <v>4</v>
       </c>
       <c r="C33" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" ht="92.05" customHeight="1">
+    <row r="34" ht="116.05" customHeight="1">
       <c r="A34" t="s" s="8">
         <v>36</v>
       </c>
@@ -1989,7 +1979,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" ht="116.05" customHeight="1">
+    <row r="35" ht="44.05" customHeight="1">
       <c r="A35" t="s" s="8">
         <v>37</v>
       </c>
@@ -2004,7 +1994,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" ht="44.05" customHeight="1">
+    <row r="36" ht="56.05" customHeight="1">
       <c r="A36" t="s" s="8">
         <v>38</v>
       </c>
@@ -2019,7 +2009,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" ht="56.05" customHeight="1">
+    <row r="37" ht="68.05" customHeight="1">
       <c r="A37" t="s" s="8">
         <v>39</v>
       </c>
@@ -2033,21 +2023,6 @@
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
-    </row>
-    <row r="38" ht="68.05" customHeight="1">
-      <c r="A38" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="B38" s="9">
-        <v>4</v>
-      </c>
-      <c r="C38" s="10">
-        <v>4</v>
-      </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files_postpilotiiedits/31.xlsx
+++ b/story_xlsx_files_postpilotiiedits/31.xlsx
@@ -40,7 +40,7 @@
     <t>They were both in the airplane manufacturing industry.</t>
   </si>
   <si>
-    <t>Mr. Shelton was the CFO of a larger, well-established company and had been in the aviation business for decades.</t>
+    <t>Mr. Shelton was the CFO of a large, well-established company and had been in the aviation business for decades.</t>
   </si>
   <si>
     <t xml:space="preserve">Mr. Gordon was the CEO of a smaller but technologically-advanced company that was projected to disrupt the airplane manufacturing market. </t>
